--- a/data/R2F Quant Comp Data Entry.xlsx
+++ b/data/R2F Quant Comp Data Entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birgitp/Box/Rise 2 Flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356CCAA6-11A4-EB48-AA87-F694E78A7258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFDCC00-B487-FA43-93D6-4B8B0B8C2BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="460" windowWidth="19220" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9580" yWindow="500" windowWidth="19220" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -610,12 +610,6 @@
     <t>ElenaJ</t>
   </si>
   <si>
-    <t>mavipasi</t>
-  </si>
-  <si>
-    <t>pclausen@grundfos.com</t>
-  </si>
-  <si>
     <t>Wonder women</t>
   </si>
   <si>
@@ -628,7 +622,13 @@
     <t>Mimi</t>
   </si>
   <si>
-    <t xml:space="preserve">Rakshita Anand </t>
+    <t>pclau</t>
+  </si>
+  <si>
+    <t>mavi</t>
+  </si>
+  <si>
+    <t>Rakshita A</t>
   </si>
 </sst>
 </file>
@@ -648,6 +648,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -906,8 +907,8 @@
   <dimension ref="A1:CB88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4544,7 +4545,7 @@
         <v>44090.809584386574</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>5</v>
@@ -11281,7 +11282,7 @@
         <v>44097.920401574069</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>4</v>
@@ -14839,7 +14840,7 @@
         <v>44104.480346539349</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>2</v>
@@ -15804,7 +15805,7 @@
         <v>44097.655860405095</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>3</v>
@@ -17256,7 +17257,7 @@
         <v>44089.635929340278</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>3</v>
@@ -21597,7 +21598,7 @@
         <v>44096.248679560187</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>5</v>
